--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quinton\Documents\Visual Studio 2015\Projects\HW6\Homework_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quinton\Documents\Visual Studio 2015\Projects\HW6\HW6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="627" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="627" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,16 @@
     <sheet name="Sprint 3 Backlog" sheetId="5" r:id="rId4"/>
     <sheet name="Sprint 4 Backlog" sheetId="6" r:id="rId5"/>
     <sheet name="Sprint 5 Backlog" sheetId="7" r:id="rId6"/>
-    <sheet name="Sprint NN Backlog" sheetId="2" r:id="rId7"/>
+    <sheet name="Sprint 6 Backlog" sheetId="8" r:id="rId7"/>
+    <sheet name="Sprint 7 Backlog" sheetId="9" r:id="rId8"/>
+    <sheet name="Sprint NN Backlog" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="289">
   <si>
     <t>Product Name:</t>
   </si>
@@ -809,42 +811,12 @@
     <t>Add necessary code to display window and run FLTK</t>
   </si>
   <si>
-    <t>Also comment out the CLI portion of code</t>
-  </si>
-  <si>
-    <t>Add Fl_Menu_Bar</t>
-  </si>
-  <si>
-    <t>Add a "Create" option to the menu bar with a submenu option for Robot_Part</t>
-  </si>
-  <si>
-    <t>Add Fl_input dialogs that will ask user for information for creating a Robot_Part</t>
-  </si>
-  <si>
-    <t>Add callback to that option that will call Controller's input dialogs</t>
-  </si>
-  <si>
     <t>Makefile</t>
   </si>
   <si>
-    <t>Add Fl_input dialogs that will ask user for information for creating a Robot_Model</t>
-  </si>
-  <si>
-    <t>Update Menu_Bar to also have a option for Robot_Models</t>
-  </si>
-  <si>
-    <t>Add submenu option under Create</t>
-  </si>
-  <si>
     <t>Create new Makefile to correctly compile a FLTK program</t>
   </si>
   <si>
-    <t>Update Makefile with Controller</t>
-  </si>
-  <si>
-    <t>Add Controller</t>
-  </si>
-  <si>
     <t>Backup</t>
   </si>
   <si>
@@ -852,6 +824,78 @@
   </si>
   <si>
     <t>Set up git repository for Homework 6</t>
+  </si>
+  <si>
+    <t>Get FLTK to correctly compile on machine</t>
+  </si>
+  <si>
+    <t>Create a menu bar</t>
+  </si>
+  <si>
+    <t>Create a menu bar item with a submenu option to create a robot part</t>
+  </si>
+  <si>
+    <t>Menu title: "Create"; Submenu title: "Robot Part"</t>
+  </si>
+  <si>
+    <t>Create a callback for Create&gt;Robot Part that calls aforementioned dialog</t>
+  </si>
+  <si>
+    <t>Update Makefile as needed</t>
+  </si>
+  <si>
+    <t>Create new submenu option under Create for a Robot Model</t>
+  </si>
+  <si>
+    <t>Create a function that will call Fl_input dialogs to collect robot model info</t>
+  </si>
+  <si>
+    <t>Create a callback for Create&gt;Robot Model that calls aforementioned dialog</t>
+  </si>
+  <si>
+    <t>6 &amp; 7</t>
+  </si>
+  <si>
+    <t>Create a class that will call Fl_input dialogs to collect robot part info</t>
+  </si>
+  <si>
+    <t>Create a class that will call Fl_input dialogs to collect robot model info</t>
+  </si>
+  <si>
+    <t>Create a class that will output current robot model info</t>
+  </si>
+  <si>
+    <t>Menu option: Report &gt; All Robot Models</t>
+  </si>
+  <si>
+    <t>Update Create Robot Model dialog to also include adding a picture</t>
+  </si>
+  <si>
+    <t>Update Makefile for compiling pictures</t>
+  </si>
+  <si>
+    <t>Update Robot Model List dialog to display the previously chosen picture</t>
+  </si>
+  <si>
+    <t>Add menu option for listing robot models</t>
+  </si>
+  <si>
+    <t>Add methods for extracting information</t>
+  </si>
+  <si>
+    <t>Design callbacks for widgets in listing class</t>
+  </si>
+  <si>
+    <t>Update UML diagrams</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>Create debug option to generate random robot parts</t>
+  </si>
+  <si>
+    <t>Create debug option to generate random robot models</t>
   </si>
 </sst>
 </file>
@@ -1262,16 +1306,16 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3146,7 +3190,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sprint 5 Backlog'!$A$57:$A$64</c:f>
+              <c:f>'Sprint 5 Backlog'!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3179,33 +3223,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sprint 5 Backlog'!$B$57:$B$64</c:f>
+              <c:f>'Sprint 5 Backlog'!$B$48:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3470,6 +3514,826 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint 6 Burn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sprint 6 Backlog'!$A$48:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sprint 6 Backlog'!$B$48:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BFE-4D83-BCD7-829E6DBD7B5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="393249400"/>
+        <c:axId val="1"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="393249400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Left</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393249400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint 7 Burn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sprint 7 Backlog'!$A$48:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sprint 7 Backlog'!$B$48:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC90-411A-A3AE-4A9157D6083D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="393249400"/>
+        <c:axId val="1"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="393249400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Left</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393249400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3935,6 +4799,80 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -4268,8 +5206,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4627,8 +5565,8 @@
         <v>15</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>B25-1</f>
+        <v>31</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>14</v>
@@ -4648,7 +5586,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>14</v>
@@ -4668,7 +5606,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>14</v>
@@ -4688,7 +5626,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>14</v>
@@ -4772,7 +5710,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D34" s="42">
         <v>5</v>
@@ -4830,10 +5768,10 @@
         <v>3</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D36" s="39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -4888,10 +5826,10 @@
         <v>5</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="39">
-        <v>5</v>
+        <v>154</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>274</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -4949,7 +5887,7 @@
         <v>148</v>
       </c>
       <c r="D40" s="42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -4978,7 +5916,7 @@
         <v>148</v>
       </c>
       <c r="D41" s="42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -5036,7 +5974,7 @@
         <v>148</v>
       </c>
       <c r="D43" s="42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -5065,7 +6003,7 @@
         <v>148</v>
       </c>
       <c r="D44" s="42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -5094,7 +6032,7 @@
         <v>148</v>
       </c>
       <c r="D45" s="42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -8221,10 +9159,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8309,8 +9247,8 @@
         <v>135</v>
       </c>
       <c r="B6" s="35">
-        <f>COUNT(A21:A50)</f>
-        <v>16</v>
+        <f>COUNT(A21:A41)</f>
+        <v>8</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -8325,7 +9263,7 @@
       </c>
       <c r="B7" s="35">
         <f>SUM(B6)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -8340,7 +9278,7 @@
       </c>
       <c r="B8" s="35">
         <f>SUM(B7)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -8355,7 +9293,7 @@
       </c>
       <c r="B9" s="35">
         <f>SUM(B8, -1)</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -8369,8 +9307,8 @@
         <v>139</v>
       </c>
       <c r="B10" s="35">
-        <f>SUM(B9)</f>
-        <v>15</v>
+        <f>SUM(B9, -2)</f>
+        <v>5</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -8384,8 +9322,8 @@
         <v>140</v>
       </c>
       <c r="B11" s="35">
-        <f>SUM(B10)</f>
-        <v>15</v>
+        <f>SUM(B10, -1)</f>
+        <v>4</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -8399,8 +9337,8 @@
         <v>141</v>
       </c>
       <c r="B12" s="35">
-        <f>SUM(B11)</f>
-        <v>15</v>
+        <f>SUM(B11, -4)</f>
+        <v>0</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -8415,7 +9353,7 @@
       </c>
       <c r="B13" s="35">
         <f>SUM(B12)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -8494,19 +9432,19 @@
         <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D22" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E22" t="s">
         <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -8529,7 +9467,7 @@
         <v>258</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -8552,7 +9490,7 @@
         <v>256</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -8575,7 +9513,7 @@
         <v>257</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -8598,7 +9536,7 @@
         <v>259</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -8612,16 +9550,16 @@
         <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E27" t="s">
         <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -8629,284 +9567,94 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>247</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="E28" t="s">
         <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G28" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48:B55" si="0">B6</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B29" t="s">
-        <v>216</v>
-      </c>
-      <c r="C29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" t="s">
-        <v>255</v>
-      </c>
-      <c r="E29" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" t="s">
-        <v>271</v>
-      </c>
-      <c r="G29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" t="s">
-        <v>255</v>
-      </c>
-      <c r="E30" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" t="s">
-        <v>261</v>
-      </c>
-      <c r="G30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" t="s">
-        <v>255</v>
-      </c>
-      <c r="E31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" t="s">
-        <v>262</v>
-      </c>
-      <c r="G31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>216</v>
-      </c>
-      <c r="C32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" t="s">
-        <v>255</v>
-      </c>
-      <c r="E32" t="s">
-        <v>150</v>
-      </c>
-      <c r="F32" t="s">
-        <v>264</v>
-      </c>
-      <c r="G32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" t="s">
-        <v>265</v>
-      </c>
-      <c r="E33" t="s">
-        <v>150</v>
-      </c>
-      <c r="F33" t="s">
-        <v>270</v>
-      </c>
-      <c r="G33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>217</v>
-      </c>
-      <c r="C34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" t="s">
-        <v>164</v>
-      </c>
-      <c r="E34" t="s">
-        <v>150</v>
-      </c>
-      <c r="F34" t="s">
-        <v>266</v>
-      </c>
-      <c r="G34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>217</v>
-      </c>
-      <c r="C35" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" t="s">
-        <v>255</v>
-      </c>
-      <c r="E35" t="s">
-        <v>150</v>
-      </c>
-      <c r="F35" t="s">
-        <v>267</v>
-      </c>
-      <c r="G35" t="s">
-        <v>148</v>
-      </c>
-      <c r="H35" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" t="s">
-        <v>255</v>
-      </c>
-      <c r="E36" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" t="s">
-        <v>264</v>
-      </c>
-      <c r="G36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B57">
-        <f t="shared" ref="B57:B64" si="0">B6</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>2</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>3</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>4</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>5</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>6</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>7</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8920,6 +9668,1112 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="32">
+        <v>6</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="33">
+        <v>42677.333333333336</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="33">
+        <v>42684.333333333336</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="34">
+        <f>B3</f>
+        <v>42684.333333333336</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="35">
+        <f>COUNT(A21:A45)</f>
+        <v>9</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="35">
+        <f>SUM(B6)</f>
+        <v>9</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="35">
+        <f>SUM(B7, -3)</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="35">
+        <f>SUM(B8)</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="35">
+        <f>SUM(B9)</f>
+        <v>6</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="35">
+        <f>SUM(B10, -3)</f>
+        <v>3</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="35">
+        <f>SUM(B11)</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="35">
+        <f>SUM(B12, -2)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>267</v>
+      </c>
+      <c r="G22" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" t="s">
+        <v>275</v>
+      </c>
+      <c r="G23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" t="s">
+        <v>255</v>
+      </c>
+      <c r="E24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" t="s">
+        <v>269</v>
+      </c>
+      <c r="G24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" t="s">
+        <v>271</v>
+      </c>
+      <c r="G26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" t="s">
+        <v>272</v>
+      </c>
+      <c r="G27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>255</v>
+      </c>
+      <c r="E28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" t="s">
+        <v>273</v>
+      </c>
+      <c r="G28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48:B55" si="0">B6</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="32">
+        <v>7</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="33">
+        <v>42684.333333333336</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="33">
+        <v>42691.333333333336</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="34">
+        <f>B3</f>
+        <v>42691.333333333336</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="35">
+        <f>COUNT(A21:A45)</f>
+        <v>11</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="35">
+        <f>SUM(B6)</f>
+        <v>11</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="35">
+        <f>SUM(B7)</f>
+        <v>11</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="35">
+        <f>SUM(B8)</f>
+        <v>11</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="35">
+        <f>SUM(B9)</f>
+        <v>11</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="35">
+        <f>SUM(B10)</f>
+        <v>11</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="35">
+        <f>SUM(B11)</f>
+        <v>11</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="35">
+        <f>SUM(B12)</f>
+        <v>11</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" t="s">
+        <v>276</v>
+      </c>
+      <c r="G21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>277</v>
+      </c>
+      <c r="G22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" t="s">
+        <v>283</v>
+      </c>
+      <c r="G23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" t="s">
+        <v>255</v>
+      </c>
+      <c r="E24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" t="s">
+        <v>284</v>
+      </c>
+      <c r="G24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" t="s">
+        <v>279</v>
+      </c>
+      <c r="G26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>255</v>
+      </c>
+      <c r="E28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" t="s">
+        <v>281</v>
+      </c>
+      <c r="G28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" t="s">
+        <v>285</v>
+      </c>
+      <c r="G29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>286</v>
+      </c>
+      <c r="E30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>286</v>
+      </c>
+      <c r="E31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48:B55" si="0">B6</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H15"/>

--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -1309,13 +1309,13 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4051,25 +4051,25 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5206,8 +5206,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5585,8 +5585,8 @@
         <v>16</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>B26-1</f>
+        <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>14</v>
@@ -5605,8 +5605,8 @@
         <v>17</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>B27-1</f>
+        <v>29</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>14</v>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>14</v>
@@ -5826,7 +5826,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>274</v>
@@ -5884,7 +5884,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D40" s="42">
         <v>7</v>
@@ -10202,7 +10202,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10302,8 +10302,8 @@
         <v>136</v>
       </c>
       <c r="B7" s="35">
-        <f>SUM(B6)</f>
-        <v>11</v>
+        <f>SUM(B6, -2)</f>
+        <v>9</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -10317,8 +10317,8 @@
         <v>137</v>
       </c>
       <c r="B8" s="35">
-        <f>SUM(B7)</f>
-        <v>11</v>
+        <f>SUM(B7, -2)</f>
+        <v>7</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -10332,8 +10332,8 @@
         <v>138</v>
       </c>
       <c r="B9" s="35">
-        <f>SUM(B8)</f>
-        <v>11</v>
+        <f t="shared" ref="B7:B13" si="0">SUM(B8)</f>
+        <v>7</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -10347,8 +10347,8 @@
         <v>139</v>
       </c>
       <c r="B10" s="35">
-        <f>SUM(B9)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -10362,8 +10362,8 @@
         <v>140</v>
       </c>
       <c r="B11" s="35">
-        <f>SUM(B10)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -10377,8 +10377,8 @@
         <v>141</v>
       </c>
       <c r="B12" s="35">
-        <f>SUM(B11)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -10392,8 +10392,8 @@
         <v>142</v>
       </c>
       <c r="B13" s="35">
-        <f>SUM(B12)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -10458,7 +10458,7 @@
         <v>276</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -10481,7 +10481,7 @@
         <v>277</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -10550,7 +10550,7 @@
         <v>282</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -10668,7 +10668,7 @@
         <v>287</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -10691,7 +10691,7 @@
         <v>288</v>
       </c>
       <c r="G31" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48:B55" si="0">B6</f>
+        <f t="shared" ref="B48:B55" si="1">B6</f>
         <v>11</v>
       </c>
     </row>
@@ -10708,8 +10708,8 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -10717,8 +10717,8 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -10726,8 +10726,8 @@
         <v>3</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -10735,8 +10735,8 @@
         <v>4</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -10744,8 +10744,8 @@
         <v>5</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -10753,8 +10753,8 @@
         <v>6</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -10762,8 +10762,8 @@
         <v>7</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -9,25 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="627" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="627" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint 1 Backlog" sheetId="3" r:id="rId2"/>
-    <sheet name="Sprint 2 Backlog" sheetId="4" r:id="rId3"/>
-    <sheet name="Sprint 3 Backlog" sheetId="5" r:id="rId4"/>
-    <sheet name="Sprint 4 Backlog" sheetId="6" r:id="rId5"/>
-    <sheet name="Sprint 5 Backlog" sheetId="7" r:id="rId6"/>
-    <sheet name="Sprint 6 Backlog" sheetId="8" r:id="rId7"/>
-    <sheet name="Sprint 7 Backlog" sheetId="9" r:id="rId8"/>
-    <sheet name="Sprint NN Backlog" sheetId="2" r:id="rId9"/>
+    <sheet name="Sprint 1 Backlog" sheetId="3" r:id="rId1"/>
+    <sheet name="Sprint 2 Backlog" sheetId="4" r:id="rId2"/>
+    <sheet name="Sprint 3 Backlog" sheetId="5" r:id="rId3"/>
+    <sheet name="Sprint 4 Backlog" sheetId="6" r:id="rId4"/>
+    <sheet name="Sprint 5 Backlog" sheetId="7" r:id="rId5"/>
+    <sheet name="Sprint 6 Backlog" sheetId="8" r:id="rId6"/>
+    <sheet name="Sprint 7 Backlog" sheetId="9" r:id="rId7"/>
+    <sheet name="Product Backlog" sheetId="1" r:id="rId8"/>
+    <sheet name="Sprint 8 Backlog" sheetId="10" r:id="rId9"/>
+    <sheet name="Sprint NN Backlog" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="315">
   <si>
     <t>Product Name:</t>
   </si>
@@ -868,15 +869,6 @@
     <t>Menu option: Report &gt; All Robot Models</t>
   </si>
   <si>
-    <t>Update Create Robot Model dialog to also include adding a picture</t>
-  </si>
-  <si>
-    <t>Update Makefile for compiling pictures</t>
-  </si>
-  <si>
-    <t>Update Robot Model List dialog to display the previously chosen picture</t>
-  </si>
-  <si>
     <t>Add menu option for listing robot models</t>
   </si>
   <si>
@@ -886,16 +878,103 @@
     <t>Design callbacks for widgets in listing class</t>
   </si>
   <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>Create debug option to generate random robot parts</t>
+  </si>
+  <si>
+    <t>Create debug option to generate random robot models</t>
+  </si>
+  <si>
+    <t>7 &amp; 8</t>
+  </si>
+  <si>
+    <t>Finish the listing robot models dialog</t>
+  </si>
+  <si>
+    <t>Add a button to see the part information of each listed robot model</t>
+  </si>
+  <si>
+    <t>Create an Address class that stores a street address</t>
+  </si>
+  <si>
+    <t>Create a Beloved Customer class</t>
+  </si>
+  <si>
+    <t>Add a dialog to create a new beloved customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBC </t>
+  </si>
+  <si>
+    <t>Add menu option to create a new customer</t>
+  </si>
+  <si>
+    <t>Create &gt; Customer</t>
+  </si>
+  <si>
+    <t>Add functions/callbacks that will extract the information from the customer dialog</t>
+  </si>
+  <si>
+    <t>Create a Sales Associate class</t>
+  </si>
+  <si>
+    <t>Add a dialog to create a new sales associate</t>
+  </si>
+  <si>
+    <t>Add menu option to create a new sales associate</t>
+  </si>
+  <si>
+    <t>Create &gt; Sales Associate</t>
+  </si>
+  <si>
+    <t>Add functions/callbacks that will extract the information from the sales associate dialog</t>
+  </si>
+  <si>
+    <t>Create a Robot Order class</t>
+  </si>
+  <si>
+    <t>Add a dialog to create a new robot order</t>
+  </si>
+  <si>
+    <t>Add menu option to create a new robot order</t>
+  </si>
+  <si>
+    <t>Create &gt; Robot Order</t>
+  </si>
+  <si>
+    <t>Add function/callbacks that will extract the information from the order dialog</t>
+  </si>
+  <si>
+    <t>Update the dialog that creates robot models to also include an option to choose a picture</t>
+  </si>
+  <si>
+    <t>Add a new array to main that will store the aforementioned choice of picture</t>
+  </si>
+  <si>
+    <t>Update the dialog that lists robot models to also display the model's picture</t>
+  </si>
+  <si>
+    <t>Update the Makefile to compile pictures as well</t>
+  </si>
+  <si>
+    <t>Fix any final bugs in the system</t>
+  </si>
+  <si>
+    <t>Remove debug options</t>
+  </si>
+  <si>
     <t>Update UML diagrams</t>
   </si>
   <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>Create debug option to generate random robot parts</t>
-  </si>
-  <si>
-    <t>Create debug option to generate random robot models</t>
+    <t>Update the user manual</t>
+  </si>
+  <si>
+    <t>Update sales brochure</t>
+  </si>
+  <si>
+    <t>Proofread sales brochure</t>
   </si>
 </sst>
 </file>
@@ -1210,264 +1289,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Product Backlog Burn Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11018212831517553"/>
-          <c:y val="0.10327595034066084"/>
-          <c:w val="0.84568310426114812"/>
-          <c:h val="0.75240802388911665"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Product Backlog'!$B$21:$B$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-37FC-43E8-93A6-FBB00759CC60}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="25984586"/>
-        <c:axId val="67211722"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="25984586"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Sprints</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="1"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="67211722"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="67211722"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Features Remaining at Start of Sprint</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="1"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="25984586"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1873,7 +1694,251 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint NN Backlog'!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F4B-4055-9FAC-05E25DD28D9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="71626184"/>
+        <c:axId val="77322397"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="71626184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="77322397"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77322397"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="71626184"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2283,7 +2348,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2438,6 +2503,416 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4CC9-4D2E-9911-F345E0A51B9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="393249400"/>
+        <c:axId val="1"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="393249400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Left</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393249400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint 4 Burn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sprint 4 Backlog'!$A$59:$A$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sprint 4 Backlog'!$B$59:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6136-4370-9925-A64D5AEB6A40}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2728,7 +3203,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint 4 Burn</a:t>
+              <a:t>Sprint 5 Burn</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -2780,7 +3255,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sprint 4 Backlog'!$A$59:$A$66</c:f>
+              <c:f>'Sprint 5 Backlog'!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2813,30 +3288,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sprint 4 Backlog'!$B$59:$B$66</c:f>
+              <c:f>'Sprint 5 Backlog'!$B$48:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2847,7 +3322,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6136-4370-9925-A64D5AEB6A40}"/>
+              <c16:uniqueId val="{00000000-0674-46EB-9A1B-F9B94516B5AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3138,7 +3613,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint 5 Burn</a:t>
+              <a:t>Sprint 6 Burn</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -3190,7 +3665,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sprint 5 Backlog'!$A$48:$A$55</c:f>
+              <c:f>'Sprint 6 Backlog'!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3223,33 +3698,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sprint 5 Backlog'!$B$48:$B$55</c:f>
+              <c:f>'Sprint 6 Backlog'!$B$48:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3257,7 +3732,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0674-46EB-9A1B-F9B94516B5AC}"/>
+              <c16:uniqueId val="{00000000-2BFE-4D83-BCD7-829E6DBD7B5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3548,416 +4023,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint 6 Burn</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Sprint 6 Backlog'!$A$48:$A$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Sprint 6 Backlog'!$B$48:$B$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2BFE-4D83-BCD7-829E6DBD7B5A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="393249400"/>
-        <c:axId val="1"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="393249400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="7"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="333333"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tasks</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Left</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="393249400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Sprint 7 Burn</a:t>
             </a:r>
             <a:r>
@@ -4048,28 +4113,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4333,7 +4398,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4353,7 +4418,7 @@
               <a:rPr lang="en-US" sz="1300">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Sprint Burn Chart</a:t>
+              <a:t>Product Backlog Burn Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4362,7 +4427,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11018212831517553"/>
+          <c:y val="0.10327595034066084"/>
+          <c:w val="0.84568310426114812"/>
+          <c:h val="0.75240802388911665"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="1"/>
@@ -4403,33 +4478,36 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint NN Backlog'!$B$6:$B$13</c:f>
+              <c:f>'Product Backlog'!$B$21:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4437,7 +4515,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1F4B-4055-9FAC-05E25DD28D9D}"/>
+              <c16:uniqueId val="{00000000-37FC-43E8-93A6-FBB00759CC60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4450,11 +4528,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="71626184"/>
-        <c:axId val="77322397"/>
+        <c:axId val="25984586"/>
+        <c:axId val="67211722"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71626184"/>
+        <c:axId val="25984586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4473,7 +4551,7 @@
                   <a:rPr lang="en-US" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Tasks</a:t>
+                  <a:t>Sprints</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4490,7 +4568,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="77322397"/>
+        <c:crossAx val="67211722"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4498,9 +4576,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77322397"/>
+        <c:axId val="67211722"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4526,7 +4605,7 @@
                   <a:rPr lang="en-US" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Days</a:t>
+                  <a:t>Features Remaining at Start of Sprint</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4544,7 +4623,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71626184"/>
+        <c:crossAx val="25984586"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4577,20 +4656,467 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint 8 Burn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sprint 8 Backlog'!$A$59:$A$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sprint 8 Backlog'!$B$59:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADFB-4A4D-A21C-22000FC1AB0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="393249400"/>
+        <c:axId val="1"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="393249400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Left</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393249400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1418040</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4616,16 +5142,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4836,6 +5362,41 @@
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>531720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1418040</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>144720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -4855,41 +5416,6 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5203,1534 +5729,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I71"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875"/>
-    <col min="4" max="4" width="11"/>
-    <col min="5" max="5" width="14.140625" style="1"/>
-    <col min="6" max="6" width="8.140625"/>
-    <col min="7" max="7" width="40.5703125"/>
-    <col min="8" max="8" width="41.5703125"/>
-    <col min="9" max="9" width="80.28515625"/>
-    <col min="10" max="1025" width="11.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1001263156</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="6">
-        <f>COUNT(B34:B149)</f>
-        <v>36</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2">
-        <f t="shared" ref="B22:B29" si="0">B21</f>
-        <v>36</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="8">
-        <v>42649</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2">
-        <f>B22-1</f>
-        <v>35</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="8">
-        <f t="shared" ref="D23:D28" si="1">D22+7</f>
-        <v>42656</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="2">
-        <f>B23-3</f>
-        <v>32</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="8">
-        <f t="shared" si="1"/>
-        <v>42663</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="8">
-        <f t="shared" si="1"/>
-        <v>42670</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="2">
-        <f>B25-1</f>
-        <v>31</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="8">
-        <f t="shared" si="1"/>
-        <v>42677</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="2">
-        <f>B26-1</f>
-        <v>30</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="8">
-        <f t="shared" si="1"/>
-        <v>42684</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="2">
-        <f>B27-1</f>
-        <v>29</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="8">
-        <f t="shared" si="1"/>
-        <v>42691</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="2">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="8">
-        <v>42696</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="B34" s="42">
-        <v>1</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="42">
-        <v>5</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" s="40">
-        <v>2</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="E35" s="14">
-        <v>1</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="B36" s="42">
-        <v>3</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="39">
-        <v>6</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" s="40">
-        <v>4</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="E37" s="14">
-        <v>1</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="B38" s="42">
-        <v>5</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" s="40">
-        <v>6</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="E39" s="14">
-        <v>1</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="B40" s="42">
-        <v>7</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="D40" s="42">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="B41" s="42">
-        <v>8</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="42">
-        <v>7</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="B42" s="40">
-        <v>9</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" s="40">
-        <v>3</v>
-      </c>
-      <c r="E42" s="14">
-        <v>1</v>
-      </c>
-      <c r="F42" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="B43" s="42">
-        <v>10</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="42">
-        <v>8</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="B44" s="42">
-        <v>11</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="42">
-        <v>8</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="B45" s="42">
-        <v>12</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="42">
-        <v>8</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="B46" s="40">
-        <v>13</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="14">
-        <v>2</v>
-      </c>
-      <c r="F46" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="B47" s="41">
-        <v>14</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="17">
-        <v>2</v>
-      </c>
-      <c r="F47" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="B48" s="41">
-        <v>15</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="17">
-        <v>2</v>
-      </c>
-      <c r="F48" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="B49" s="41">
-        <v>16</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="17">
-        <v>2</v>
-      </c>
-      <c r="F49" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="B50" s="40">
-        <v>23</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="14">
-        <v>2</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="B51" s="41">
-        <v>24</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="17">
-        <v>2</v>
-      </c>
-      <c r="F51" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="B52" s="44">
-        <v>17</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="21">
-        <v>3</v>
-      </c>
-      <c r="F52" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H52" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="B53" s="44">
-        <v>18</v>
-      </c>
-      <c r="C53" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="44"/>
-      <c r="E53" s="21">
-        <v>3</v>
-      </c>
-      <c r="F53" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="I53" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-    </row>
-    <row r="56" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="B56" s="40">
-        <v>21</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" s="44"/>
-      <c r="E56" s="14">
-        <v>3</v>
-      </c>
-      <c r="F56" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I56" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="B57" s="44">
-        <v>22</v>
-      </c>
-      <c r="C57" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" s="44"/>
-      <c r="E57" s="21">
-        <v>3</v>
-      </c>
-      <c r="F57" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="H57" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="B58" s="40">
-        <v>25</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D58" s="44"/>
-      <c r="E58" s="14">
-        <v>3</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59" s="44">
-        <v>26</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="44"/>
-      <c r="E59" s="21">
-        <v>3</v>
-      </c>
-      <c r="F59" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="I59" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="B60" s="40">
-        <v>27</v>
-      </c>
-      <c r="C60" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D60" s="45"/>
-      <c r="E60" s="14">
-        <v>4</v>
-      </c>
-      <c r="F60" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="B61" s="45">
-        <v>28</v>
-      </c>
-      <c r="C61" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="45"/>
-      <c r="E61" s="24">
-        <v>4</v>
-      </c>
-      <c r="F61" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G61" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="H61" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="I61" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="B62" s="40">
-        <v>19</v>
-      </c>
-      <c r="C62" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" s="45"/>
-      <c r="E62" s="14">
-        <v>4</v>
-      </c>
-      <c r="F62" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I62" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="B63" s="45">
-        <v>20</v>
-      </c>
-      <c r="C63" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" s="45"/>
-      <c r="E63" s="24">
-        <v>4</v>
-      </c>
-      <c r="F63" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="I63" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="B64" s="45">
-        <v>29</v>
-      </c>
-      <c r="C64" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D64" s="45"/>
-      <c r="E64" s="24">
-        <v>4</v>
-      </c>
-      <c r="F64" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I64" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="B65" s="45">
-        <v>30</v>
-      </c>
-      <c r="C65" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D65" s="45"/>
-      <c r="E65" s="24">
-        <v>4</v>
-      </c>
-      <c r="F65" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I65" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="B66" s="42">
-        <v>31</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D66" s="42"/>
-      <c r="E66" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F66" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="B67" s="42">
-        <v>32</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="42"/>
-      <c r="E67" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F67" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="B68" s="42">
-        <v>33</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D68" s="42"/>
-      <c r="E68" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F68" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="B69" s="42">
-        <v>34</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" s="42"/>
-      <c r="E69" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F69" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="B70" s="42">
-        <v>35</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D70" s="42"/>
-      <c r="E70" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="B71" s="42">
-        <v>36</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D71" s="42"/>
-      <c r="E71" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F71" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H106"/>
   <sheetViews>
@@ -7440,7 +6438,252 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625"/>
+    <col min="2" max="4" width="11.5703125"/>
+    <col min="5" max="5" width="12.28515625"/>
+    <col min="6" max="6" width="51.85546875"/>
+    <col min="7" max="7" width="11.5703125"/>
+    <col min="8" max="8" width="51.85546875"/>
+    <col min="9" max="1025" width="11.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="27">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="27">
+        <f t="shared" ref="B7:B13" si="0">B6</f>
+        <v>23</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H95"/>
@@ -8141,13 +7384,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8786,7 +8029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H66"/>
@@ -9157,7 +8400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
@@ -9667,7 +8910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
@@ -10197,12 +9440,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10288,7 +9531,7 @@
       </c>
       <c r="B6" s="35">
         <f>COUNT(A21:A45)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -10303,7 +9546,7 @@
       </c>
       <c r="B7" s="35">
         <f>SUM(B6, -2)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -10318,7 +9561,7 @@
       </c>
       <c r="B8" s="35">
         <f>SUM(B7, -2)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -10332,8 +9575,8 @@
         <v>138</v>
       </c>
       <c r="B9" s="35">
-        <f t="shared" ref="B7:B13" si="0">SUM(B8)</f>
-        <v>7</v>
+        <f t="shared" ref="B9:B11" si="0">SUM(B8)</f>
+        <v>3</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -10348,7 +9591,7 @@
       </c>
       <c r="B10" s="35">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -10363,7 +9606,7 @@
       </c>
       <c r="B11" s="35">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -10377,8 +9620,8 @@
         <v>141</v>
       </c>
       <c r="B12" s="35">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(B11)</f>
+        <v>3</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -10392,8 +9635,8 @@
         <v>142</v>
       </c>
       <c r="B13" s="35">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(B12, -2)</f>
+        <v>1</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -10501,10 +9744,10 @@
         <v>150</v>
       </c>
       <c r="F23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -10524,10 +9767,10 @@
         <v>150</v>
       </c>
       <c r="F24" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -10547,7 +9790,7 @@
         <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G25" t="s">
         <v>170</v>
@@ -10561,22 +9804,22 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C26" t="s">
         <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="E26" t="s">
         <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -10584,113 +9827,21 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
         <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="E27" t="s">
         <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>219</v>
-      </c>
-      <c r="C28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" t="s">
-        <v>255</v>
-      </c>
-      <c r="E28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" t="s">
-        <v>281</v>
-      </c>
-      <c r="G28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" t="s">
-        <v>159</v>
-      </c>
-      <c r="E29" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" t="s">
-        <v>286</v>
-      </c>
-      <c r="E30" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" t="s">
-        <v>287</v>
-      </c>
-      <c r="G30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>218</v>
-      </c>
-      <c r="C31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" t="s">
-        <v>286</v>
-      </c>
-      <c r="E31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" t="s">
-        <v>288</v>
-      </c>
-      <c r="G31" t="s">
         <v>170</v>
       </c>
     </row>
@@ -10700,7 +9851,7 @@
       </c>
       <c r="B48">
         <f t="shared" ref="B48:B55" si="1">B6</f>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -10709,7 +9860,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -10718,7 +9869,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -10727,7 +9878,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -10736,7 +9887,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -10745,7 +9896,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -10754,7 +9905,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -10763,7 +9914,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10773,247 +9924,2480 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H15"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625"/>
-    <col min="2" max="4" width="11.5703125"/>
-    <col min="5" max="5" width="12.28515625"/>
-    <col min="6" max="6" width="51.85546875"/>
-    <col min="7" max="7" width="11.5703125"/>
-    <col min="8" max="8" width="51.85546875"/>
-    <col min="9" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="13.7109375"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875"/>
+    <col min="4" max="4" width="11"/>
+    <col min="5" max="5" width="14.140625" style="1"/>
+    <col min="6" max="6" width="8.140625"/>
+    <col min="7" max="7" width="40.5703125"/>
+    <col min="8" max="8" width="41.5703125"/>
+    <col min="9" max="9" width="80.28515625"/>
+    <col min="10" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>212</v>
+      </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="26"/>
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="26"/>
+      <c r="A3"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="26"/>
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>211</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="26"/>
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>150</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="27">
-        <v>23</v>
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1001263156</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="27">
-        <f t="shared" ref="B7:B13" si="0">B6</f>
-        <v>23</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="27">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="27">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="27">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="27">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="27">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="27">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6">
+        <f>COUNT(B34:B149)</f>
+        <v>36</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" ref="B22:B29" si="0">B21</f>
+        <v>36</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8">
+        <v>42649</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
+        <f>B22-1</f>
+        <v>35</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" ref="D23:D28" si="1">D22+7</f>
+        <v>42656</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <f>B23-3</f>
+        <v>32</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="1"/>
+        <v>42663</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="1"/>
+        <v>42670</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2">
+        <f>B25-1</f>
+        <v>31</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="1"/>
+        <v>42677</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2">
+        <f>B26-1</f>
+        <v>30</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="1"/>
+        <v>42684</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2">
+        <f>B27-1</f>
+        <v>29</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" si="1"/>
+        <v>42691</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="8">
+        <v>42696</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="B33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="D33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="10" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="42">
+        <v>1</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="42">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="40">
+        <v>2</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35" s="14">
+        <v>1</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36" s="42">
+        <v>3</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="39">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="40">
+        <v>4</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="14">
+        <v>1</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="42">
+        <v>5</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="40">
+        <v>6</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="42">
+        <v>7</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="42">
+        <v>8</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="39">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="40">
+        <v>9</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="40">
+        <v>3</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="42">
+        <v>10</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="42">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" s="42">
+        <v>11</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="42">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="42">
+        <v>12</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="42">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" s="40">
+        <v>13</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="14">
+        <v>2</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" s="41">
+        <v>14</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="17">
+        <v>2</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" s="41">
+        <v>15</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="17">
+        <v>2</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="B49" s="41">
+        <v>16</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="17">
+        <v>2</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" s="40">
+        <v>23</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="41"/>
+      <c r="E50" s="14">
+        <v>2</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" s="41">
+        <v>24</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="41"/>
+      <c r="E51" s="17">
+        <v>2</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" s="44">
+        <v>17</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="44"/>
+      <c r="E52" s="21">
+        <v>3</v>
+      </c>
+      <c r="F52" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" s="44">
+        <v>18</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="44"/>
+      <c r="E53" s="21">
+        <v>3</v>
+      </c>
+      <c r="F53" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+    </row>
+    <row r="56" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" s="40">
+        <v>21</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="44"/>
+      <c r="E56" s="14">
+        <v>3</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" s="44">
+        <v>22</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="44"/>
+      <c r="E57" s="21">
+        <v>3</v>
+      </c>
+      <c r="F57" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="40">
+        <v>25</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="44"/>
+      <c r="E58" s="14">
+        <v>3</v>
+      </c>
+      <c r="F58" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B59" s="44">
+        <v>26</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="44"/>
+      <c r="E59" s="21">
+        <v>3</v>
+      </c>
+      <c r="F59" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I59" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="B60" s="40">
+        <v>27</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="45"/>
+      <c r="E60" s="14">
+        <v>4</v>
+      </c>
+      <c r="F60" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" s="45">
+        <v>28</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="45"/>
+      <c r="E61" s="24">
+        <v>4</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="I61" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B62" s="40">
+        <v>19</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="45"/>
+      <c r="E62" s="14">
+        <v>4</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="B63" s="45">
+        <v>20</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="45"/>
+      <c r="E63" s="24">
+        <v>4</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" s="45">
+        <v>29</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="45"/>
+      <c r="E64" s="24">
+        <v>4</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I64" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" s="45">
+        <v>30</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="45"/>
+      <c r="E65" s="24">
+        <v>4</v>
+      </c>
+      <c r="F65" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I65" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="B66" s="42">
+        <v>31</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="42"/>
+      <c r="E66" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F66" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" s="42">
+        <v>32</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="42"/>
+      <c r="E67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F67" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B68" s="42">
+        <v>33</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="42"/>
+      <c r="E68" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F68" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" s="42">
+        <v>34</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="42"/>
+      <c r="E69" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" s="42">
+        <v>35</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="42"/>
+      <c r="E70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" s="42">
+        <v>36</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="42"/>
+      <c r="E71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="32">
+        <v>7</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="33">
+        <v>42691.333333333336</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="33">
+        <v>42696.333333333336</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="34">
+        <f>B3</f>
+        <v>42696.333333333336</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="35">
+        <f>COUNT(A21:A47)</f>
+        <v>27</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="35">
+        <f>SUM(B6, -2)</f>
+        <v>25</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="35">
+        <f>SUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="35">
+        <f t="shared" ref="B9:B11" si="0">SUM(B8)</f>
+        <v>25</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="35">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="35">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="35">
+        <f>SUM(B11)</f>
+        <v>25</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="35">
+        <f>SUM(B12)</f>
+        <v>25</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" t="s">
+        <v>286</v>
+      </c>
+      <c r="G21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>287</v>
+      </c>
+      <c r="G22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" t="s">
+        <v>288</v>
+      </c>
+      <c r="G23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" t="s">
+        <v>289</v>
+      </c>
+      <c r="G24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" t="s">
+        <v>292</v>
+      </c>
+      <c r="G26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" t="s">
+        <v>294</v>
+      </c>
+      <c r="G27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" t="s">
+        <v>295</v>
+      </c>
+      <c r="G28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" t="s">
+        <v>297</v>
+      </c>
+      <c r="G30" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="G31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" t="s">
+        <v>300</v>
+      </c>
+      <c r="G32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" t="s">
+        <v>255</v>
+      </c>
+      <c r="E33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" t="s">
+        <v>255</v>
+      </c>
+      <c r="E34" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" t="s">
+        <v>302</v>
+      </c>
+      <c r="G34" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" t="s">
+        <v>260</v>
+      </c>
+      <c r="E39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s">
+        <v>282</v>
+      </c>
+      <c r="E40" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E41" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" t="s">
+        <v>310</v>
+      </c>
+      <c r="G41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" t="s">
+        <v>312</v>
+      </c>
+      <c r="G43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>196</v>
+      </c>
+      <c r="E44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" t="s">
+        <v>195</v>
+      </c>
+      <c r="G44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" t="s">
+        <v>314</v>
+      </c>
+      <c r="G46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <f>B6</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <f>B7</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <f>B8</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <f>B9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <f>B10</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <f>B11</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <f>B12</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <f>B13</f>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -4784,25 +4784,25 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11456,8 +11456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11557,8 +11557,8 @@
         <v>136</v>
       </c>
       <c r="B7" s="35">
-        <f>SUM(B6, -2)</f>
-        <v>25</v>
+        <f>SUM(B6, -4)</f>
+        <v>23</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -11573,7 +11573,7 @@
       </c>
       <c r="B8" s="35">
         <f>SUM(B7)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="B9" s="35">
         <f t="shared" ref="B9:B11" si="0">SUM(B8)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -11603,7 +11603,7 @@
       </c>
       <c r="B10" s="35">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="B11" s="35">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="B12" s="35">
         <f>SUM(B11)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -11648,7 +11648,7 @@
       </c>
       <c r="B13" s="35">
         <f>SUM(B12)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -11759,7 +11759,7 @@
         <v>288</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -11782,7 +11782,7 @@
         <v>289</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -12338,7 +12338,7 @@
       </c>
       <c r="B60">
         <f>B7</f>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -12347,7 +12347,7 @@
       </c>
       <c r="B61">
         <f>B8</f>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -12356,7 +12356,7 @@
       </c>
       <c r="B62">
         <f>B9</f>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -12365,7 +12365,7 @@
       </c>
       <c r="B63">
         <f>B10</f>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -12374,7 +12374,7 @@
       </c>
       <c r="B64">
         <f>B11</f>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="B65">
         <f>B12</f>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -12392,7 +12392,7 @@
       </c>
       <c r="B66">
         <f>B13</f>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="315">
   <si>
     <t>Product Name:</t>
   </si>
@@ -899,9 +899,6 @@
     <t>Create an Address class that stores a street address</t>
   </si>
   <si>
-    <t>Create a Beloved Customer class</t>
-  </si>
-  <si>
     <t>Add a dialog to create a new beloved customer</t>
   </si>
   <si>
@@ -911,39 +908,24 @@
     <t>Add menu option to create a new customer</t>
   </si>
   <si>
-    <t>Create &gt; Customer</t>
-  </si>
-  <si>
     <t>Add functions/callbacks that will extract the information from the customer dialog</t>
   </si>
   <si>
-    <t>Create a Sales Associate class</t>
-  </si>
-  <si>
     <t>Add a dialog to create a new sales associate</t>
   </si>
   <si>
     <t>Add menu option to create a new sales associate</t>
   </si>
   <si>
-    <t>Create &gt; Sales Associate</t>
-  </si>
-  <si>
     <t>Add functions/callbacks that will extract the information from the sales associate dialog</t>
   </si>
   <si>
-    <t>Create a Robot Order class</t>
-  </si>
-  <si>
     <t>Add a dialog to create a new robot order</t>
   </si>
   <si>
     <t>Add menu option to create a new robot order</t>
   </si>
   <si>
-    <t>Create &gt; Robot Order</t>
-  </si>
-  <si>
     <t>Add function/callbacks that will extract the information from the order dialog</t>
   </si>
   <si>
@@ -968,13 +950,31 @@
     <t>Update UML diagrams</t>
   </si>
   <si>
-    <t>Update the user manual</t>
-  </si>
-  <si>
     <t>Update sales brochure</t>
   </si>
   <si>
     <t>Proofread sales brochure</t>
+  </si>
+  <si>
+    <t>Create a Customer class and update the Shop class accordingly</t>
+  </si>
+  <si>
+    <t>Create a Sales Associate class and update the Shop class accordingly</t>
+  </si>
+  <si>
+    <t>Create a Robot Order class and update the Shop class accordingly</t>
+  </si>
+  <si>
+    <t>New &gt; Customer</t>
+  </si>
+  <si>
+    <t>New &gt; Sales Associate</t>
+  </si>
+  <si>
+    <t>New &gt; Robot Order</t>
+  </si>
+  <si>
+    <t>Redo the user manual</t>
   </si>
 </sst>
 </file>
@@ -4743,10 +4743,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sprint 8 Backlog'!$A$59:$A$66</c:f>
+              <c:f>'Sprint 8 Backlog'!$A$59:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4764,45 +4764,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sprint 8 Backlog'!$B$59:$B$66</c:f>
+              <c:f>'Sprint 8 Backlog'!$B$59:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4829,7 +4817,7 @@
         <c:axId val="393249400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7"/>
+          <c:max val="5"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -11454,10 +11442,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11557,8 +11545,8 @@
         <v>136</v>
       </c>
       <c r="B7" s="35">
-        <f>SUM(B6, -4)</f>
-        <v>23</v>
+        <f>SUM(B6)</f>
+        <v>27</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -11572,7 +11560,7 @@
         <v>137</v>
       </c>
       <c r="B8" s="35">
-        <f>SUM(B7)</f>
+        <f>SUM(B7, -4)</f>
         <v>23</v>
       </c>
       <c r="C8" s="29"/>
@@ -11587,8 +11575,8 @@
         <v>138</v>
       </c>
       <c r="B9" s="35">
-        <f t="shared" ref="B9:B11" si="0">SUM(B8)</f>
-        <v>23</v>
+        <f>SUM(B8, -9)</f>
+        <v>14</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -11602,8 +11590,8 @@
         <v>139</v>
       </c>
       <c r="B10" s="35">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f t="shared" ref="B10:B11" si="0">SUM(B9)</f>
+        <v>14</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -11618,7 +11606,7 @@
       </c>
       <c r="B11" s="35">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -11628,34 +11616,20 @@
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="35">
-        <f>SUM(B11)</f>
-        <v>23</v>
-      </c>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="35">
-        <f>SUM(B12)</f>
-        <v>23</v>
-      </c>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
@@ -11779,7 +11753,7 @@
         <v>150</v>
       </c>
       <c r="F24" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="G24" t="s">
         <v>170</v>
@@ -11802,10 +11776,10 @@
         <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -11813,7 +11787,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C26" t="s">
         <v>152</v>
@@ -11825,13 +11799,13 @@
         <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="H26" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -11839,7 +11813,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C27" t="s">
         <v>152</v>
@@ -11851,10 +11825,10 @@
         <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -11874,10 +11848,10 @@
         <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="G28" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -11897,10 +11871,10 @@
         <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G29" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -11920,13 +11894,13 @@
         <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="H30" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -11946,10 +11920,10 @@
         <v>150</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G31" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -11969,10 +11943,10 @@
         <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="G32" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -11992,10 +11966,10 @@
         <v>150</v>
       </c>
       <c r="F33" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G33" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -12015,13 +11989,13 @@
         <v>150</v>
       </c>
       <c r="F34" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G34" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="H34" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -12041,10 +12015,10 @@
         <v>150</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G35" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -12064,7 +12038,7 @@
         <v>150</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G36" t="s">
         <v>148</v>
@@ -12087,7 +12061,7 @@
         <v>150</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G37" t="s">
         <v>148</v>
@@ -12110,7 +12084,7 @@
         <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G38" t="s">
         <v>148</v>
@@ -12133,7 +12107,7 @@
         <v>150</v>
       </c>
       <c r="F39" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G39" t="s">
         <v>148</v>
@@ -12156,7 +12130,7 @@
         <v>150</v>
       </c>
       <c r="F40" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G40" t="s">
         <v>148</v>
@@ -12179,7 +12153,7 @@
         <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G41" t="s">
         <v>148</v>
@@ -12202,7 +12176,7 @@
         <v>150</v>
       </c>
       <c r="F42" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G42" t="s">
         <v>148</v>
@@ -12225,7 +12199,7 @@
         <v>150</v>
       </c>
       <c r="F43" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G43" t="s">
         <v>148</v>
@@ -12271,7 +12245,7 @@
         <v>150</v>
       </c>
       <c r="F45" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G45" t="s">
         <v>148</v>
@@ -12294,7 +12268,7 @@
         <v>150</v>
       </c>
       <c r="F46" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G46" t="s">
         <v>148</v>
@@ -12328,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <f>B6</f>
+        <f t="shared" ref="B59:B64" si="1">B6</f>
         <v>27</v>
       </c>
     </row>
@@ -12337,8 +12311,8 @@
         <v>1</v>
       </c>
       <c r="B60">
-        <f>B7</f>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -12346,7 +12320,7 @@
         <v>2</v>
       </c>
       <c r="B61">
-        <f>B8</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
@@ -12355,8 +12329,8 @@
         <v>3</v>
       </c>
       <c r="B62">
-        <f>B9</f>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -12364,8 +12338,8 @@
         <v>4</v>
       </c>
       <c r="B63">
-        <f>B10</f>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -12373,26 +12347,8 @@
         <v>5</v>
       </c>
       <c r="B64">
-        <f>B11</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>6</v>
-      </c>
-      <c r="B65">
-        <f>B12</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>7</v>
-      </c>
-      <c r="B66">
-        <f>B13</f>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="627" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="627" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 1 Backlog" sheetId="3" r:id="rId1"/>
-    <sheet name="Sprint 2 Backlog" sheetId="4" r:id="rId2"/>
-    <sheet name="Sprint 3 Backlog" sheetId="5" r:id="rId3"/>
-    <sheet name="Sprint 4 Backlog" sheetId="6" r:id="rId4"/>
-    <sheet name="Sprint 5 Backlog" sheetId="7" r:id="rId5"/>
-    <sheet name="Sprint 6 Backlog" sheetId="8" r:id="rId6"/>
-    <sheet name="Sprint 7 Backlog" sheetId="9" r:id="rId7"/>
-    <sheet name="Product Backlog" sheetId="1" r:id="rId8"/>
+    <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 1 Backlog" sheetId="3" r:id="rId2"/>
+    <sheet name="Sprint 2 Backlog" sheetId="4" r:id="rId3"/>
+    <sheet name="Sprint 3 Backlog" sheetId="5" r:id="rId4"/>
+    <sheet name="Sprint 4 Backlog" sheetId="6" r:id="rId5"/>
+    <sheet name="Sprint 5 Backlog" sheetId="7" r:id="rId6"/>
+    <sheet name="Sprint 6 Backlog" sheetId="8" r:id="rId7"/>
+    <sheet name="Sprint 7 Backlog" sheetId="9" r:id="rId8"/>
     <sheet name="Sprint 8 Backlog" sheetId="10" r:id="rId9"/>
     <sheet name="Sprint NN Backlog" sheetId="2" r:id="rId10"/>
   </sheets>
@@ -932,9 +932,6 @@
     <t>Update the dialog that creates robot models to also include an option to choose a picture</t>
   </si>
   <si>
-    <t>Add a new array to main that will store the aforementioned choice of picture</t>
-  </si>
-  <si>
     <t>Update the dialog that lists robot models to also display the model's picture</t>
   </si>
   <si>
@@ -975,6 +972,9 @@
   </si>
   <si>
     <t>Redo the user manual</t>
+  </si>
+  <si>
+    <t>Update Robot_Model to also store the filename of the picture</t>
   </si>
 </sst>
 </file>
@@ -1289,6 +1289,508 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Product Backlog Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11018212831517553"/>
+          <c:y val="0.10327595034066084"/>
+          <c:w val="0.84568310426114812"/>
+          <c:h val="0.75240802388911665"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Product Backlog'!$B$21:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37FC-43E8-93A6-FBB00759CC60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="25984586"/>
+        <c:axId val="67211722"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="25984586"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Sprints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="67211722"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67211722"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Features Remaining at Start of Sprint</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="25984586"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint NN Backlog'!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F4B-4055-9FAC-05E25DD28D9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="71626184"/>
+        <c:axId val="77322397"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="71626184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="77322397"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77322397"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="71626184"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1694,251 +2196,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Sprint Burn Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint NN Backlog'!$B$6:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1F4B-4055-9FAC-05E25DD28D9D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="71626184"/>
-        <c:axId val="77322397"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="71626184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Tasks</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="1"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="77322397"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="77322397"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Days</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="1"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="71626184"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2348,7 +2606,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2503,416 +2761,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4CC9-4D2E-9911-F345E0A51B9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="393249400"/>
-        <c:axId val="1"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="393249400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="7"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="333333"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tasks</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Left</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="393249400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sprint 4 Burn</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Sprint 4 Backlog'!$A$59:$A$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Sprint 4 Backlog'!$B$59:$B$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6136-4370-9925-A64D5AEB6A40}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3203,7 +3051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint 5 Burn</a:t>
+              <a:t>Sprint 4 Burn</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -3255,7 +3103,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sprint 5 Backlog'!$A$48:$A$55</c:f>
+              <c:f>'Sprint 4 Backlog'!$A$59:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3288,30 +3136,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sprint 5 Backlog'!$B$48:$B$55</c:f>
+              <c:f>'Sprint 4 Backlog'!$B$59:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3322,7 +3170,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0674-46EB-9A1B-F9B94516B5AC}"/>
+              <c16:uniqueId val="{00000000-6136-4370-9925-A64D5AEB6A40}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3613,7 +3461,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint 6 Burn</a:t>
+              <a:t>Sprint 5 Burn</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -3665,7 +3513,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sprint 6 Backlog'!$A$48:$A$55</c:f>
+              <c:f>'Sprint 5 Backlog'!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3698,33 +3546,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sprint 6 Backlog'!$B$48:$B$55</c:f>
+              <c:f>'Sprint 5 Backlog'!$B$48:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3732,7 +3580,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2BFE-4D83-BCD7-829E6DBD7B5A}"/>
+              <c16:uniqueId val="{00000000-0674-46EB-9A1B-F9B94516B5AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4023,6 +3871,416 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Sprint 6 Burn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sprint 6 Backlog'!$A$48:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sprint 6 Backlog'!$B$48:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BFE-4D83-BCD7-829E6DBD7B5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="393249400"/>
+        <c:axId val="1"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="393249400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Left</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393249400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Sprint 7 Burn</a:t>
             </a:r>
             <a:r>
@@ -4398,264 +4656,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Product Backlog Burn Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11018212831517553"/>
-          <c:y val="0.10327595034066084"/>
-          <c:w val="0.84568310426114812"/>
-          <c:h val="0.75240802388911665"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Product Backlog'!$B$21:$B$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-37FC-43E8-93A6-FBB00759CC60}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="25984586"/>
-        <c:axId val="67211722"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="25984586"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Sprints</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="1"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="67211722"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="67211722"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Features Remaining at Start of Sprint</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="1"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="25984586"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -4787,10 +4787,10 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5056,25 +5056,23 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>531720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1418040</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5130,16 +5128,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1552575</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5350,23 +5348,25 @@
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1418040</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5717,712 +5717,1529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H106"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875"/>
+    <col min="4" max="4" width="11"/>
+    <col min="5" max="5" width="14.140625" style="1"/>
+    <col min="6" max="6" width="8.140625"/>
+    <col min="7" max="7" width="40.5703125"/>
+    <col min="8" max="8" width="41.5703125"/>
+    <col min="9" max="9" width="80.28515625"/>
+    <col min="10" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1001263156</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6">
+        <f>COUNT(B34:B149)</f>
+        <v>36</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2">
+        <f>B21</f>
+        <v>36</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8">
+        <v>42649</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
+        <f>B22-1</f>
+        <v>35</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" ref="D23:D28" si="0">D22+7</f>
+        <v>42656</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <f>B23-3</f>
+        <v>32</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="0"/>
+        <v>42663</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2">
+        <f>B24</f>
+        <v>32</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="0"/>
+        <v>42670</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2">
+        <f>B25-1</f>
+        <v>31</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="0"/>
+        <v>42677</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2">
+        <f>B26-1</f>
+        <v>30</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="0"/>
+        <v>42684</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2">
+        <f>B27-1</f>
+        <v>29</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" si="0"/>
+        <v>42691</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="2">
+        <f>B28-5</f>
+        <v>24</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="8">
+        <v>42696</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="32">
+      <c r="E33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="42">
         <v>1</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="33">
-        <v>42642.451388888891</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="33">
-        <v>42649.333333333336</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="34">
-        <f>B3</f>
-        <v>42649.333333333336</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="35">
+      <c r="C34" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="42">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="40">
+        <v>2</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35" s="14">
+        <v>1</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36" s="42">
+        <v>3</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="39">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="40">
+        <v>4</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="14">
+        <v>1</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="42">
+        <v>5</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="40">
+        <v>6</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="42">
+        <v>7</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="42">
+        <v>8</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="39">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="40">
+        <v>9</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="40">
+        <v>3</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="42">
+        <v>10</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="42">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" s="42">
+        <v>11</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="42">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="42">
+        <v>12</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="42">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" s="40">
+        <v>13</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="14">
+        <v>2</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" s="41">
+        <v>14</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="17">
+        <v>2</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" s="41">
+        <v>15</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="17">
+        <v>2</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="B49" s="41">
+        <v>16</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="17">
+        <v>2</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" s="40">
+        <v>23</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="41"/>
+      <c r="E50" s="14">
+        <v>2</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" s="41">
+        <v>24</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="41"/>
+      <c r="E51" s="17">
+        <v>2</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" s="44">
         <v>17</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="35">
-        <f>B6</f>
-        <v>17</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="35">
-        <f>B7</f>
-        <v>17</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="35">
-        <f>B8-1</f>
-        <v>16</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="35">
-        <f>B9-6</f>
-        <v>10</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="35">
-        <f>B10-2</f>
-        <v>8</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="35">
-        <f>B11</f>
-        <v>8</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="35">
-        <f>B12</f>
-        <v>8</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="31" t="s">
+      <c r="C52" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="44"/>
+      <c r="E52" s="21">
+        <v>3</v>
+      </c>
+      <c r="F52" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" s="44">
+        <v>18</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="44"/>
+      <c r="E53" s="21">
+        <v>3</v>
+      </c>
+      <c r="F53" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+    </row>
+    <row r="56" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" s="40">
         <v>21</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="31" t="s">
+      <c r="C56" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="44"/>
+      <c r="E56" s="14">
+        <v>3</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" s="44">
+        <v>22</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="44"/>
+      <c r="E57" s="21">
+        <v>3</v>
+      </c>
+      <c r="F57" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="40">
+        <v>25</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="44"/>
+      <c r="E58" s="14">
+        <v>3</v>
+      </c>
+      <c r="F58" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B59" s="44">
+        <v>26</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="44"/>
+      <c r="E59" s="21">
+        <v>3</v>
+      </c>
+      <c r="F59" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I59" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="B60" s="40">
+        <v>27</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="45"/>
+      <c r="E60" s="14">
+        <v>4</v>
+      </c>
+      <c r="F60" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" s="45">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" t="s">
-        <v>177</v>
-      </c>
-      <c r="G18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="C61" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="45"/>
+      <c r="E61" s="24">
         <v>4</v>
       </c>
-      <c r="B19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" t="s">
-        <v>176</v>
-      </c>
-      <c r="G19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" t="s">
-        <v>175</v>
-      </c>
-      <c r="G20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" t="s">
-        <v>173</v>
-      </c>
-      <c r="G22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F61" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="I61" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B62" s="40">
+        <v>19</v>
+      </c>
+      <c r="C62" s="40" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="D62" s="45"/>
+      <c r="E62" s="14">
+        <v>4</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="B63" s="45">
+        <v>20</v>
+      </c>
+      <c r="C63" s="45" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" t="s">
-        <v>165</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="D63" s="45"/>
+      <c r="E63" s="24">
+        <v>4</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" s="45">
+        <v>29</v>
+      </c>
+      <c r="C64" s="45" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="D64" s="45"/>
+      <c r="E64" s="24">
+        <v>4</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I64" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" s="45">
+        <v>30</v>
+      </c>
+      <c r="C65" s="45" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" t="s">
-        <v>161</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="D65" s="45"/>
+      <c r="E65" s="24">
+        <v>4</v>
+      </c>
+      <c r="F65" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I65" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="B66" s="42">
+        <v>31</v>
+      </c>
+      <c r="C66" s="43" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>15</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C30" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="D66" s="42"/>
+      <c r="E66" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F66" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" s="42">
+        <v>32</v>
+      </c>
+      <c r="C67" s="43" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" t="s">
-        <v>150</v>
-      </c>
-      <c r="F32" t="s">
-        <v>149</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="D67" s="42"/>
+      <c r="E67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F67" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B68" s="42">
+        <v>33</v>
+      </c>
+      <c r="C68" s="43" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>0</v>
-      </c>
-      <c r="B99">
-        <f t="shared" ref="B99:B106" si="0">B6</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>1</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>2</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>3</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>4</v>
-      </c>
-      <c r="B103">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>5</v>
-      </c>
-      <c r="B104">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>6</v>
-      </c>
-      <c r="B105">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>7</v>
-      </c>
-      <c r="B106">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="D68" s="42"/>
+      <c r="E68" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F68" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" s="42">
+        <v>34</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="42"/>
+      <c r="E69" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" s="42">
+        <v>35</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="42"/>
+      <c r="E70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" s="42">
+        <v>36</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="42"/>
+      <c r="E71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6673,6 +7490,717 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:H106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="32">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="33">
+        <v>42642.451388888891</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="33">
+        <v>42649.333333333336</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="34">
+        <f>B3</f>
+        <v>42649.333333333336</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="35">
+        <v>17</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="35">
+        <f>B6</f>
+        <v>17</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="35">
+        <f>B7</f>
+        <v>17</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="35">
+        <f>B8-1</f>
+        <v>16</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="35">
+        <f>B9-6</f>
+        <v>10</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="35">
+        <f>B10-2</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="35">
+        <f>B11</f>
+        <v>8</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="35">
+        <f>B12</f>
+        <v>8</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99:B106" si="0">B6</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>5</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>6</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>7</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H95"/>
   <sheetViews>
@@ -7372,7 +8900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H79"/>
@@ -8017,7 +9545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H66"/>
@@ -8388,7 +9916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
@@ -8898,7 +10426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
@@ -9428,7 +10956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
@@ -9563,7 +11091,7 @@
         <v>138</v>
       </c>
       <c r="B9" s="35">
-        <f t="shared" ref="B9:B11" si="0">SUM(B8)</f>
+        <f>SUM(B8)</f>
         <v>3</v>
       </c>
       <c r="C9" s="29"/>
@@ -9578,7 +11106,7 @@
         <v>139</v>
       </c>
       <c r="B10" s="35">
-        <f t="shared" si="0"/>
+        <f>SUM(B9)</f>
         <v>3</v>
       </c>
       <c r="C10" s="29"/>
@@ -9593,7 +11121,7 @@
         <v>140</v>
       </c>
       <c r="B11" s="35">
-        <f t="shared" si="0"/>
+        <f>SUM(B10)</f>
         <v>3</v>
       </c>
       <c r="C11" s="29"/>
@@ -9838,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48:B55" si="1">B6</f>
+        <f t="shared" ref="B48:B55" si="0">B6</f>
         <v>7</v>
       </c>
     </row>
@@ -9847,7 +11375,7 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -9856,7 +11384,7 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -9865,7 +11393,7 @@
         <v>3</v>
       </c>
       <c r="B51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -9874,7 +11402,7 @@
         <v>4</v>
       </c>
       <c r="B52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -9883,7 +11411,7 @@
         <v>5</v>
       </c>
       <c r="B53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -9892,7 +11420,7 @@
         <v>6</v>
       </c>
       <c r="B54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -9901,7 +11429,7 @@
         <v>7</v>
       </c>
       <c r="B55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9912,1540 +11440,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I71"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875"/>
-    <col min="4" max="4" width="11"/>
-    <col min="5" max="5" width="14.140625" style="1"/>
-    <col min="6" max="6" width="8.140625"/>
-    <col min="7" max="7" width="40.5703125"/>
-    <col min="8" max="8" width="41.5703125"/>
-    <col min="9" max="9" width="80.28515625"/>
-    <col min="10" max="1025" width="11.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1001263156</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="6">
-        <f>COUNT(B34:B149)</f>
-        <v>36</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2">
-        <f t="shared" ref="B22:B29" si="0">B21</f>
-        <v>36</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="8">
-        <v>42649</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2">
-        <f>B22-1</f>
-        <v>35</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="8">
-        <f t="shared" ref="D23:D28" si="1">D22+7</f>
-        <v>42656</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="2">
-        <f>B23-3</f>
-        <v>32</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="8">
-        <f t="shared" si="1"/>
-        <v>42663</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="8">
-        <f t="shared" si="1"/>
-        <v>42670</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="2">
-        <f>B25-1</f>
-        <v>31</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="8">
-        <f t="shared" si="1"/>
-        <v>42677</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="2">
-        <f>B26-1</f>
-        <v>30</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="8">
-        <f t="shared" si="1"/>
-        <v>42684</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="2">
-        <f>B27-1</f>
-        <v>29</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="8">
-        <f t="shared" si="1"/>
-        <v>42691</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="2">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="8">
-        <v>42696</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="B34" s="42">
-        <v>1</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="42">
-        <v>5</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" s="40">
-        <v>2</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="E35" s="14">
-        <v>1</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="B36" s="42">
-        <v>3</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="39">
-        <v>6</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" s="40">
-        <v>4</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="E37" s="14">
-        <v>1</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="B38" s="42">
-        <v>5</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" s="40">
-        <v>6</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="E39" s="14">
-        <v>1</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="B40" s="42">
-        <v>7</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="B41" s="42">
-        <v>8</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="39">
-        <v>8</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="B42" s="40">
-        <v>9</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" s="40">
-        <v>3</v>
-      </c>
-      <c r="E42" s="14">
-        <v>1</v>
-      </c>
-      <c r="F42" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="B43" s="42">
-        <v>10</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="42">
-        <v>8</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="B44" s="42">
-        <v>11</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="42">
-        <v>8</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="B45" s="42">
-        <v>12</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="42">
-        <v>8</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="B46" s="40">
-        <v>13</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="14">
-        <v>2</v>
-      </c>
-      <c r="F46" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="B47" s="41">
-        <v>14</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="17">
-        <v>2</v>
-      </c>
-      <c r="F47" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="B48" s="41">
-        <v>15</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="17">
-        <v>2</v>
-      </c>
-      <c r="F48" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="B49" s="41">
-        <v>16</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="17">
-        <v>2</v>
-      </c>
-      <c r="F49" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="B50" s="40">
-        <v>23</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="14">
-        <v>2</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="B51" s="41">
-        <v>24</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="17">
-        <v>2</v>
-      </c>
-      <c r="F51" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="B52" s="44">
-        <v>17</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="21">
-        <v>3</v>
-      </c>
-      <c r="F52" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H52" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="B53" s="44">
-        <v>18</v>
-      </c>
-      <c r="C53" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="44"/>
-      <c r="E53" s="21">
-        <v>3</v>
-      </c>
-      <c r="F53" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="I53" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-    </row>
-    <row r="56" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="B56" s="40">
-        <v>21</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" s="44"/>
-      <c r="E56" s="14">
-        <v>3</v>
-      </c>
-      <c r="F56" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I56" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="B57" s="44">
-        <v>22</v>
-      </c>
-      <c r="C57" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" s="44"/>
-      <c r="E57" s="21">
-        <v>3</v>
-      </c>
-      <c r="F57" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="H57" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="B58" s="40">
-        <v>25</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D58" s="44"/>
-      <c r="E58" s="14">
-        <v>3</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59" s="44">
-        <v>26</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="44"/>
-      <c r="E59" s="21">
-        <v>3</v>
-      </c>
-      <c r="F59" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="I59" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="B60" s="40">
-        <v>27</v>
-      </c>
-      <c r="C60" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D60" s="45"/>
-      <c r="E60" s="14">
-        <v>4</v>
-      </c>
-      <c r="F60" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="B61" s="45">
-        <v>28</v>
-      </c>
-      <c r="C61" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="45"/>
-      <c r="E61" s="24">
-        <v>4</v>
-      </c>
-      <c r="F61" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G61" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="H61" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="I61" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="B62" s="40">
-        <v>19</v>
-      </c>
-      <c r="C62" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" s="45"/>
-      <c r="E62" s="14">
-        <v>4</v>
-      </c>
-      <c r="F62" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I62" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="B63" s="45">
-        <v>20</v>
-      </c>
-      <c r="C63" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" s="45"/>
-      <c r="E63" s="24">
-        <v>4</v>
-      </c>
-      <c r="F63" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="I63" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="B64" s="45">
-        <v>29</v>
-      </c>
-      <c r="C64" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D64" s="45"/>
-      <c r="E64" s="24">
-        <v>4</v>
-      </c>
-      <c r="F64" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I64" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="B65" s="45">
-        <v>30</v>
-      </c>
-      <c r="C65" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D65" s="45"/>
-      <c r="E65" s="24">
-        <v>4</v>
-      </c>
-      <c r="F65" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I65" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="B66" s="42">
-        <v>31</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D66" s="42"/>
-      <c r="E66" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F66" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="B67" s="42">
-        <v>32</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="42"/>
-      <c r="E67" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F67" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="B68" s="42">
-        <v>33</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D68" s="42"/>
-      <c r="E68" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F68" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="B69" s="42">
-        <v>34</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" s="42"/>
-      <c r="E69" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F69" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="B70" s="42">
-        <v>35</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D70" s="42"/>
-      <c r="E70" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="B71" s="42">
-        <v>36</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D71" s="42"/>
-      <c r="E71" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F71" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11590,8 +11590,8 @@
         <v>139</v>
       </c>
       <c r="B10" s="35">
-        <f t="shared" ref="B10:B11" si="0">SUM(B9)</f>
-        <v>14</v>
+        <f>SUM(B9, -7)</f>
+        <v>7</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -11605,8 +11605,8 @@
         <v>140</v>
       </c>
       <c r="B11" s="35">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>SUM(B10, -2)</f>
+        <v>5</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -11753,7 +11753,7 @@
         <v>150</v>
       </c>
       <c r="F24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G24" t="s">
         <v>170</v>
@@ -11805,7 +11805,7 @@
         <v>170</v>
       </c>
       <c r="H26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -11848,7 +11848,7 @@
         <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G28" t="s">
         <v>170</v>
@@ -11900,7 +11900,7 @@
         <v>170</v>
       </c>
       <c r="H30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -11943,7 +11943,7 @@
         <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G32" t="s">
         <v>170</v>
@@ -11969,7 +11969,7 @@
         <v>296</v>
       </c>
       <c r="G33" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -11995,7 +11995,7 @@
         <v>170</v>
       </c>
       <c r="H34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -12018,7 +12018,7 @@
         <v>298</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -12041,7 +12041,7 @@
         <v>299</v>
       </c>
       <c r="G36" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -12061,10 +12061,10 @@
         <v>150</v>
       </c>
       <c r="F37" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="G37" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -12084,10 +12084,10 @@
         <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G38" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -12107,10 +12107,10 @@
         <v>150</v>
       </c>
       <c r="F39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G39" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -12130,10 +12130,10 @@
         <v>150</v>
       </c>
       <c r="F40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G40" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -12153,10 +12153,10 @@
         <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G41" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -12176,10 +12176,10 @@
         <v>150</v>
       </c>
       <c r="F42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G42" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -12199,10 +12199,10 @@
         <v>150</v>
       </c>
       <c r="F43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G43" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -12245,7 +12245,7 @@
         <v>150</v>
       </c>
       <c r="F45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G45" t="s">
         <v>148</v>
@@ -12268,7 +12268,7 @@
         <v>150</v>
       </c>
       <c r="F46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G46" t="s">
         <v>148</v>
@@ -12302,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <f t="shared" ref="B59:B64" si="1">B6</f>
+        <f t="shared" ref="B59:B64" si="0">B6</f>
         <v>27</v>
       </c>
     </row>
@@ -12311,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="B60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
@@ -12320,7 +12320,7 @@
         <v>2</v>
       </c>
       <c r="B61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
@@ -12329,7 +12329,7 @@
         <v>3</v>
       </c>
       <c r="B62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -12338,8 +12338,8 @@
         <v>4</v>
       </c>
       <c r="B63">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -12347,8 +12347,8 @@
         <v>5</v>
       </c>
       <c r="B64">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
